--- a/examples/XlsxPeasant_02_colorsTest.xlsx
+++ b/examples/XlsxPeasant_02_colorsTest.xlsx
@@ -2876,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36728B22-2562-4B47-91A6-2E8E038F40AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C6BCF-DE9F-4145-BA9C-2664A08E7AF3}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
